--- a/uka15.xlsx
+++ b/uka15.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Mikrolysreklamen15\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="uka15" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -39,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,48 +517,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Merknad" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Nøytral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Tittel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totalt" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Varseltekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,7 +616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -656,7 +651,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -833,26 +828,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:J83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1">
         <v>1</v>
       </c>
@@ -863,29 +858,29 @@
         <v>2.1</v>
       </c>
       <c r="F1" s="1">
-        <f>B1*$M$1</f>
-        <v>47.7</v>
+        <f>(B1*1000)/$M$1</f>
+        <v>331.25</v>
       </c>
       <c r="G1" s="1">
-        <f>C1*$M$1</f>
-        <v>3.7800000000000002</v>
+        <f>(C1*1000)/$M$1</f>
+        <v>26.25</v>
       </c>
       <c r="I1">
-        <f>(F1+$M$4)*$M$2</f>
-        <v>17.700000000000003</v>
+        <f>(F1*$M$2)+$M$4</f>
+        <v>3.25</v>
       </c>
       <c r="J1">
-        <f>(G1+$M$5)*$M$3</f>
-        <v>-2.7800000000000002</v>
+        <f>(G1*$M$3)+$M$5</f>
+        <v>-4.2</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2</v>
       </c>
@@ -896,29 +891,29 @@
         <v>3.7</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:G65" si="0">B2*$M$1</f>
-        <v>47.7</v>
+        <f t="shared" ref="F2:F65" si="0">(B2*1000)/$M$1</f>
+        <v>331.25</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" si="0"/>
-        <v>6.66</v>
+        <f t="shared" ref="G2:G65" si="1">(C2*1000)/$M$1</f>
+        <v>46.25</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I65" si="1">(F2+$M$4)*$M$2</f>
-        <v>17.700000000000003</v>
+        <f t="shared" ref="I2:I65" si="2">(F2*$M$2)+$M$4</f>
+        <v>3.25</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J65" si="2">(G2+$M$5)*$M$3</f>
-        <v>-5.66</v>
+        <f t="shared" ref="J2:J65" si="3">(G2*$M$3)+$M$5</f>
+        <v>-7.4</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>3</v>
       </c>
@@ -930,28 +925,28 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>47.7</v>
+        <v>331.25</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5399999999999991</v>
+        <f t="shared" si="1"/>
+        <v>66.25</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
-        <v>17.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>3.25</v>
       </c>
       <c r="J3">
-        <f t="shared" si="2"/>
-        <v>-8.5399999999999991</v>
+        <f t="shared" si="3"/>
+        <v>-10.6</v>
       </c>
       <c r="L3" t="s">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>4</v>
       </c>
@@ -963,28 +958,28 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>47.7</v>
+        <v>331.25</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>12.420000000000002</v>
+        <f t="shared" si="1"/>
+        <v>86.25</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>17.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>3.25</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
-        <v>-11.420000000000002</v>
+        <f t="shared" si="3"/>
+        <v>-13.8</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>5</v>
       </c>
@@ -996,28 +991,28 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>47.7</v>
+        <v>331.25</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>15.3</v>
+        <f t="shared" si="1"/>
+        <v>106.25</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>17.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>3.25</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>-14.3</v>
+        <f t="shared" si="3"/>
+        <v>-17</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1029,22 +1024,22 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>47.7</v>
+        <v>331.25</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>18.18</v>
+        <f t="shared" si="1"/>
+        <v>126.25</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>17.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>3.25</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>-17.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1056,22 +1051,22 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>47.7</v>
+        <v>331.25</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>21.06</v>
+        <f t="shared" si="1"/>
+        <v>146.25</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>17.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>3.25</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>-20.059999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-23.400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1083,22 +1078,22 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>50.580000000000005</v>
+        <v>351.25</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>19.98</v>
+        <f t="shared" si="1"/>
+        <v>138.75</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>20.580000000000005</v>
+        <f t="shared" si="2"/>
+        <v>7.25</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>-18.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-22.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1110,22 +1105,22 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>53.46</v>
+        <v>371.25</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>19.079999999999998</v>
+        <f t="shared" si="1"/>
+        <v>132.5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>23.46</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>-18.079999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-21.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1137,22 +1132,22 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>56.7</v>
+        <v>393.75</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>26.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>15.75</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1164,22 +1159,22 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>56.7</v>
+        <v>393.75</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3</v>
+        <f t="shared" si="1"/>
+        <v>43.75</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>26.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>15.75</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>-5.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1191,22 +1186,22 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>56.7</v>
+        <v>393.75</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>26.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>15.75</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1218,22 +1213,22 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>56.7</v>
+        <v>393.75</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>11.700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>81.25</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>26.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>15.75</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>-10.700000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1245,22 +1240,22 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>57.06</v>
+        <v>396.25</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>14.4</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>27.060000000000002</v>
+        <f t="shared" si="2"/>
+        <v>16.25</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>-13.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1272,22 +1267,22 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>58.5</v>
+        <v>406.25</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>15.840000000000002</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>28.5</v>
+        <f t="shared" si="2"/>
+        <v>18.25</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>-14.840000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-17.600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1299,22 +1294,22 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>60.480000000000004</v>
+        <v>420</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>16.740000000000002</v>
+        <f t="shared" si="1"/>
+        <v>116.25</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>30.480000000000004</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>-15.740000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-18.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1326,22 +1321,22 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>62.460000000000008</v>
+        <v>433.75</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>16.740000000000002</v>
+        <f t="shared" si="1"/>
+        <v>116.25</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>32.460000000000008</v>
+        <f t="shared" si="2"/>
+        <v>23.75</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
-        <v>-15.740000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-18.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1353,22 +1348,22 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>64.260000000000005</v>
+        <v>446.25</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>15.840000000000002</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>34.260000000000005</v>
+        <f t="shared" si="2"/>
+        <v>26.25</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
-        <v>-14.840000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-17.600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1380,22 +1375,22 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>65.7</v>
+        <v>456.25</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>14.22</v>
+        <f t="shared" si="1"/>
+        <v>98.75</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>35.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>28.25</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
-        <v>-13.22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-15.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1407,22 +1402,22 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>66.06</v>
+        <v>458.75</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>11.700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>81.25</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>36.06</v>
+        <f t="shared" si="2"/>
+        <v>28.75</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
-        <v>-10.700000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1434,22 +1429,22 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>66.06</v>
+        <v>458.75</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>36.06</v>
+        <f t="shared" si="2"/>
+        <v>28.75</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1461,22 +1456,22 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>66.06</v>
+        <v>458.75</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3</v>
+        <f t="shared" si="1"/>
+        <v>43.75</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>36.06</v>
+        <f t="shared" si="2"/>
+        <v>28.75</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
-        <v>-5.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1488,22 +1483,22 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>66.06</v>
+        <v>458.75</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>36.06</v>
+        <f t="shared" si="2"/>
+        <v>28.75</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1515,22 +1510,22 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>70.739999999999995</v>
+        <v>491.25</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>15.659999999999998</v>
+        <f t="shared" si="1"/>
+        <v>108.75</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
-        <v>40.739999999999995</v>
+        <f t="shared" si="2"/>
+        <v>35.25</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
-        <v>-14.659999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-17.400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1542,22 +1537,22 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>70.739999999999995</v>
+        <v>491.25</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>12.78</v>
+        <f t="shared" si="1"/>
+        <v>88.75</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
-        <v>40.739999999999995</v>
+        <f t="shared" si="2"/>
+        <v>35.25</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
-        <v>-11.78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-14.200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1569,22 +1564,22 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>70.739999999999995</v>
+        <v>491.25</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7200000000000006</v>
+        <f t="shared" si="1"/>
+        <v>67.5</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
-        <v>40.739999999999995</v>
+        <f t="shared" si="2"/>
+        <v>35.25</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
-        <v>-8.7200000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1596,22 +1591,22 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>70.739999999999995</v>
+        <v>491.25</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>6.66</v>
+        <f t="shared" si="1"/>
+        <v>46.25</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
-        <v>40.739999999999995</v>
+        <f t="shared" si="2"/>
+        <v>35.25</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
-        <v>-5.66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1623,22 +1618,22 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>70.739999999999995</v>
+        <v>491.25</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>40.739999999999995</v>
+        <f t="shared" si="2"/>
+        <v>35.25</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1650,22 +1645,22 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>73.8</v>
+        <v>512.5</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
-        <v>43.8</v>
+        <f t="shared" si="2"/>
+        <v>39.5</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>31</v>
       </c>
@@ -1677,22 +1672,22 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>76.680000000000007</v>
+        <v>532.5</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9600000000000004</v>
+        <f t="shared" si="1"/>
+        <v>27.5</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
-        <v>46.680000000000007</v>
+        <f t="shared" si="2"/>
+        <v>43.5</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
-        <v>-2.9600000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>32</v>
       </c>
@@ -1704,22 +1699,22 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>79.02</v>
+        <v>548.75</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>5.58</v>
+        <f t="shared" si="1"/>
+        <v>38.75</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
-        <v>49.019999999999996</v>
+        <f t="shared" si="2"/>
+        <v>46.75</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
-        <v>-4.58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>33</v>
       </c>
@@ -1731,22 +1726,22 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>79.92</v>
+        <v>555</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1</v>
+        <f t="shared" si="1"/>
+        <v>56.25</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
-        <v>49.92</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
-        <v>-7.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>34</v>
       </c>
@@ -1758,22 +1753,22 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>79.2</v>
+        <v>550</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>10.44</v>
+        <f t="shared" si="1"/>
+        <v>72.5</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
-        <v>49.2</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
-        <v>-9.44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>35</v>
       </c>
@@ -1785,22 +1780,22 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>76.680000000000007</v>
+        <v>532.5</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>12.6</v>
+        <f t="shared" si="1"/>
+        <v>87.5</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
-        <v>46.680000000000007</v>
+        <f t="shared" si="2"/>
+        <v>43.5</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
-        <v>-11.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>36</v>
       </c>
@@ -1812,22 +1807,22 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>73.8</v>
+        <v>512.5</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>12.78</v>
+        <f t="shared" si="1"/>
+        <v>88.75</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
-        <v>43.8</v>
+        <f t="shared" si="2"/>
+        <v>39.5</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
-        <v>-11.78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-14.200000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>37</v>
       </c>
@@ -1839,22 +1834,22 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>73.8</v>
+        <v>512.5</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7200000000000006</v>
+        <f t="shared" si="1"/>
+        <v>67.5</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
-        <v>43.8</v>
+        <f t="shared" si="2"/>
+        <v>39.5</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
-        <v>-8.7200000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>38</v>
       </c>
@@ -1866,22 +1861,22 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>73.8</v>
+        <v>512.5</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>6.66</v>
+        <f t="shared" si="1"/>
+        <v>46.25</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
-        <v>43.8</v>
+        <f t="shared" si="2"/>
+        <v>39.5</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
-        <v>-5.66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>39</v>
       </c>
@@ -1893,22 +1888,22 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>76.680000000000007</v>
+        <v>532.5</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>6.84</v>
+        <f t="shared" si="1"/>
+        <v>47.5</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
-        <v>46.680000000000007</v>
+        <f t="shared" si="2"/>
+        <v>43.5</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
-        <v>-5.84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-7.6000000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>40</v>
       </c>
@@ -1920,22 +1915,22 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>76.680000000000007</v>
+        <v>532.5</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5399999999999991</v>
+        <f t="shared" si="1"/>
+        <v>66.25</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
-        <v>46.680000000000007</v>
+        <f t="shared" si="2"/>
+        <v>43.5</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
-        <v>-8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>41</v>
       </c>
@@ -1947,22 +1942,22 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>77.22</v>
+        <v>536.25</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>15.3</v>
+        <f t="shared" si="1"/>
+        <v>106.25</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
-        <v>47.22</v>
+        <f t="shared" si="2"/>
+        <v>44.25</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
-        <v>-14.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>45</v>
       </c>
@@ -1974,22 +1969,22 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>84.24</v>
+        <v>585</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>15.120000000000001</v>
+        <f t="shared" si="1"/>
+        <v>105</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
-        <v>54.239999999999995</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
-        <v>-14.120000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-16.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>46</v>
       </c>
@@ -2001,22 +1996,22 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>84.24</v>
+        <v>585</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>12.24</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
-        <v>54.239999999999995</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
-        <v>-11.24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-13.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>47</v>
       </c>
@@ -2028,22 +2023,22 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>84.24</v>
+        <v>585</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>9.3600000000000012</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
-        <v>54.239999999999995</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
-        <v>-8.3600000000000012</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-10.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>48</v>
       </c>
@@ -2055,22 +2050,22 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>84.24</v>
+        <v>585</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>6.48</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
-        <v>54.239999999999995</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
-        <v>-5.48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>49</v>
       </c>
@@ -2082,22 +2077,22 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>84.24</v>
+        <v>585</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
-        <v>54.239999999999995</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>50</v>
       </c>
@@ -2109,22 +2104,22 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>88.56</v>
+        <v>615</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>15.120000000000001</v>
+        <f t="shared" si="1"/>
+        <v>105</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
-        <v>58.56</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="J46">
-        <f t="shared" si="2"/>
-        <v>-14.120000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-16.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>51</v>
       </c>
@@ -2136,22 +2131,22 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>88.56</v>
+        <v>615</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>12.24</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
-        <v>58.56</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
-        <v>-11.24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-13.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>52</v>
       </c>
@@ -2163,22 +2158,22 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>88.56</v>
+        <v>615</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>9.3600000000000012</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
-        <v>58.56</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="J48">
-        <f t="shared" si="2"/>
-        <v>-8.3600000000000012</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-10.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>53</v>
       </c>
@@ -2190,22 +2185,22 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>88.56</v>
+        <v>615</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>6.48</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
-        <v>58.56</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="J49">
-        <f t="shared" si="2"/>
-        <v>-5.48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>54</v>
       </c>
@@ -2217,22 +2212,22 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>88.56</v>
+        <v>615</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
-        <v>58.56</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="J50">
-        <f t="shared" si="2"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>55</v>
       </c>
@@ -2244,22 +2239,22 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>91.08</v>
+        <v>632.5</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
-        <v>61.08</v>
+        <f t="shared" si="2"/>
+        <v>63.5</v>
       </c>
       <c r="J51">
-        <f t="shared" si="2"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>56</v>
       </c>
@@ -2271,22 +2266,22 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>93.600000000000009</v>
+        <v>650</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
-        <v>63.600000000000009</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="J52">
-        <f t="shared" si="2"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>57</v>
       </c>
@@ -2298,22 +2293,22 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>96.12</v>
+        <v>667.5</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
-        <v>66.12</v>
+        <f t="shared" si="2"/>
+        <v>70.5</v>
       </c>
       <c r="J53">
-        <f t="shared" si="2"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>58</v>
       </c>
@@ -2325,22 +2320,22 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>91.08</v>
+        <v>632.5</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
-        <v>12.24</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
-        <v>61.08</v>
+        <f t="shared" si="2"/>
+        <v>63.5</v>
       </c>
       <c r="J54">
-        <f t="shared" si="2"/>
-        <v>-11.24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-13.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>59</v>
       </c>
@@ -2352,22 +2347,22 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>93.600000000000009</v>
+        <v>650</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
-        <v>12.24</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
-        <v>63.600000000000009</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="J55">
-        <f t="shared" si="2"/>
-        <v>-11.24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-13.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>65</v>
       </c>
@@ -2379,22 +2374,22 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>687.5</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
-        <v>15.48</v>
+        <f t="shared" si="1"/>
+        <v>107.5</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f t="shared" si="2"/>
+        <v>74.5</v>
       </c>
       <c r="J56">
-        <f t="shared" si="2"/>
-        <v>-14.48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-17.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>66</v>
       </c>
@@ -2406,22 +2401,22 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>100.08</v>
+        <v>695</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
-        <v>12.78</v>
+        <f t="shared" si="1"/>
+        <v>88.75</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
-        <v>70.08</v>
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
       <c r="J57">
-        <f t="shared" si="2"/>
-        <v>-11.78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-14.200000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>67</v>
       </c>
@@ -2433,22 +2428,22 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>101.16000000000001</v>
+        <v>702.5</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
-        <v>10.26</v>
+        <f t="shared" si="1"/>
+        <v>71.25</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
-        <v>71.160000000000011</v>
+        <f t="shared" si="2"/>
+        <v>77.5</v>
       </c>
       <c r="J58">
-        <f t="shared" si="2"/>
-        <v>-9.26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>68</v>
       </c>
@@ -2460,22 +2455,22 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>102.42</v>
+        <v>711.25</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
-        <v>7.5600000000000005</v>
+        <f t="shared" si="1"/>
+        <v>52.5</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
-        <v>72.42</v>
+        <f t="shared" si="2"/>
+        <v>79.25</v>
       </c>
       <c r="J59">
-        <f t="shared" si="2"/>
-        <v>-6.5600000000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>69</v>
       </c>
@@ -2487,22 +2482,22 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>103.5</v>
+        <v>718.75</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
-        <v>5.04</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
-        <v>73.5</v>
+        <f t="shared" si="2"/>
+        <v>80.75</v>
       </c>
       <c r="J60">
-        <f t="shared" si="2"/>
-        <v>-4.04</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>70</v>
       </c>
@@ -2514,22 +2509,22 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>104.94</v>
+        <v>728.75</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
-        <v>7.5600000000000005</v>
+        <f t="shared" si="1"/>
+        <v>52.5</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
-        <v>74.94</v>
+        <f t="shared" si="2"/>
+        <v>82.75</v>
       </c>
       <c r="J61">
-        <f t="shared" si="2"/>
-        <v>-6.5600000000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>71</v>
       </c>
@@ -2541,22 +2536,22 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>106.38000000000001</v>
+        <v>738.75</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
-        <v>10.26</v>
+        <f t="shared" si="1"/>
+        <v>71.25</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
-        <v>76.38000000000001</v>
+        <f t="shared" si="2"/>
+        <v>84.75</v>
       </c>
       <c r="J62">
-        <f t="shared" si="2"/>
-        <v>-9.26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>72</v>
       </c>
@@ -2568,22 +2563,22 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>107.82</v>
+        <v>748.75</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
-        <v>12.96</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
-        <v>77.819999999999993</v>
+        <f t="shared" si="2"/>
+        <v>86.75</v>
       </c>
       <c r="J63">
-        <f t="shared" si="2"/>
-        <v>-11.96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-14.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>73</v>
       </c>
@@ -2595,22 +2590,22 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>108.72</v>
+        <v>755</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="0"/>
-        <v>15.659999999999998</v>
+        <f t="shared" si="1"/>
+        <v>108.75</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
-        <v>78.72</v>
+        <f t="shared" si="2"/>
+        <v>88</v>
       </c>
       <c r="J64">
-        <f t="shared" si="2"/>
-        <v>-14.659999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-17.400000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>74</v>
       </c>
@@ -2622,22 +2617,22 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>102.60000000000001</v>
+        <v>712.5</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="0"/>
-        <v>12.78</v>
+        <f t="shared" si="1"/>
+        <v>88.75</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
-        <v>72.600000000000009</v>
+        <f t="shared" si="2"/>
+        <v>79.5</v>
       </c>
       <c r="J65">
-        <f t="shared" si="2"/>
-        <v>-11.78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>-14.200000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>75</v>
       </c>
@@ -2648,23 +2643,23 @@
         <v>5.7</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" ref="F66:G83" si="3">B66*$M$1</f>
-        <v>103.86000000000001</v>
+        <f t="shared" ref="F66:F83" si="4">(B66*1000)/$M$1</f>
+        <v>721.25</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="3"/>
-        <v>10.26</v>
+        <f t="shared" ref="G66:G83" si="5">(C66*1000)/$M$1</f>
+        <v>71.25</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I83" si="4">(F66+$M$4)*$M$2</f>
-        <v>73.860000000000014</v>
+        <f t="shared" ref="I66:I83" si="6">(F66*$M$2)+$M$4</f>
+        <v>81.25</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J83" si="5">(G66+$M$5)*$M$3</f>
-        <v>-9.26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J66:J83" si="7">(G66*$M$3)+$M$5</f>
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>76</v>
       </c>
@@ -2675,23 +2670,23 @@
         <v>7.1</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="3"/>
-        <v>105.12</v>
+        <f t="shared" si="4"/>
+        <v>730</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="3"/>
-        <v>12.78</v>
+        <f t="shared" si="5"/>
+        <v>88.75</v>
       </c>
       <c r="I67">
-        <f t="shared" si="4"/>
-        <v>75.12</v>
+        <f t="shared" si="6"/>
+        <v>83</v>
       </c>
       <c r="J67">
-        <f t="shared" si="5"/>
-        <v>-11.78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-14.200000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>80</v>
       </c>
@@ -2702,23 +2697,23 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="3"/>
-        <v>112.14</v>
+        <f t="shared" si="4"/>
+        <v>778.75</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="3"/>
-        <v>17.46</v>
+        <f t="shared" si="5"/>
+        <v>121.25</v>
       </c>
       <c r="I68">
-        <f t="shared" si="4"/>
-        <v>82.14</v>
+        <f t="shared" si="6"/>
+        <v>92.75</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
-        <v>-16.46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-19.400000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>81</v>
       </c>
@@ -2729,23 +2724,23 @@
         <v>8.6</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="3"/>
-        <v>113.58</v>
+        <f t="shared" si="4"/>
+        <v>788.75</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="3"/>
-        <v>15.48</v>
+        <f t="shared" si="5"/>
+        <v>107.5</v>
       </c>
       <c r="I69">
-        <f t="shared" si="4"/>
-        <v>83.58</v>
+        <f t="shared" si="6"/>
+        <v>94.75</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
-        <v>-14.48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-17.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>82</v>
       </c>
@@ -2756,23 +2751,23 @@
         <v>7.5</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="3"/>
-        <v>115.02</v>
+        <f t="shared" si="4"/>
+        <v>798.75</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="3"/>
-        <v>13.5</v>
+        <f t="shared" si="5"/>
+        <v>93.75</v>
       </c>
       <c r="I70">
-        <f t="shared" si="4"/>
-        <v>85.02</v>
+        <f t="shared" si="6"/>
+        <v>96.75</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
-        <v>-12.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>83</v>
       </c>
@@ -2783,23 +2778,23 @@
         <v>6.4</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="3"/>
-        <v>116.46000000000001</v>
+        <f t="shared" si="4"/>
+        <v>808.75</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="3"/>
-        <v>11.520000000000001</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="I71">
-        <f t="shared" si="4"/>
-        <v>86.460000000000008</v>
+        <f t="shared" si="6"/>
+        <v>98.75</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
-        <v>-10.520000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-12.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>84</v>
       </c>
@@ -2810,23 +2805,23 @@
         <v>5.3</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="3"/>
-        <v>117.9</v>
+        <f t="shared" si="4"/>
+        <v>818.75</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="3"/>
-        <v>9.5399999999999991</v>
+        <f t="shared" si="5"/>
+        <v>66.25</v>
       </c>
       <c r="I72">
-        <f t="shared" si="4"/>
-        <v>87.9</v>
+        <f t="shared" si="6"/>
+        <v>100.75</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
-        <v>-8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>85</v>
       </c>
@@ -2837,23 +2832,23 @@
         <v>4.2</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="3"/>
-        <v>119.34</v>
+        <f t="shared" si="4"/>
+        <v>828.75</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="3"/>
-        <v>7.5600000000000005</v>
+        <f t="shared" si="5"/>
+        <v>52.5</v>
       </c>
       <c r="I73">
-        <f t="shared" si="4"/>
-        <v>89.34</v>
+        <f t="shared" si="6"/>
+        <v>102.75</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
-        <v>-6.5600000000000005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>86</v>
       </c>
@@ -2864,23 +2859,23 @@
         <v>3.1</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="3"/>
-        <v>120.77999999999999</v>
+        <f t="shared" si="4"/>
+        <v>838.75</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="3"/>
-        <v>5.58</v>
+        <f t="shared" si="5"/>
+        <v>38.75</v>
       </c>
       <c r="I74">
-        <f t="shared" si="4"/>
-        <v>90.779999999999987</v>
+        <f t="shared" si="6"/>
+        <v>104.75</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
-        <v>-4.58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>87</v>
       </c>
@@ -2891,23 +2886,23 @@
         <v>2</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="3"/>
-        <v>122.22000000000001</v>
+        <f t="shared" si="4"/>
+        <v>848.75</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="I75">
-        <f t="shared" si="4"/>
-        <v>92.220000000000013</v>
+        <f t="shared" si="6"/>
+        <v>106.75</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>88</v>
       </c>
@@ -2918,23 +2913,23 @@
         <v>2</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="3"/>
-        <v>111.60000000000001</v>
+        <f t="shared" si="4"/>
+        <v>775</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="I76">
-        <f t="shared" si="4"/>
-        <v>81.600000000000009</v>
+        <f t="shared" si="6"/>
+        <v>92</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>89</v>
       </c>
@@ -2945,23 +2940,23 @@
         <v>3.1</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="3"/>
-        <v>112.86000000000001</v>
+        <f t="shared" si="4"/>
+        <v>783.75</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="3"/>
-        <v>5.58</v>
+        <f t="shared" si="5"/>
+        <v>38.75</v>
       </c>
       <c r="I77">
-        <f t="shared" si="4"/>
-        <v>82.860000000000014</v>
+        <f t="shared" si="6"/>
+        <v>93.75</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
-        <v>-4.58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>90</v>
       </c>
@@ -2972,23 +2967,23 @@
         <v>4.2</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="3"/>
-        <v>114.12</v>
+        <f t="shared" si="4"/>
+        <v>792.5</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="3"/>
-        <v>7.5600000000000005</v>
+        <f t="shared" si="5"/>
+        <v>52.5</v>
       </c>
       <c r="I78">
-        <f t="shared" si="4"/>
-        <v>84.12</v>
+        <f t="shared" si="6"/>
+        <v>95.5</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
-        <v>-6.5600000000000005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>91</v>
       </c>
@@ -2999,23 +2994,23 @@
         <v>5.3</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="3"/>
-        <v>115.38</v>
+        <f t="shared" si="4"/>
+        <v>801.24999999999989</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="3"/>
-        <v>9.5399999999999991</v>
+        <f t="shared" si="5"/>
+        <v>66.25</v>
       </c>
       <c r="I79">
-        <f t="shared" si="4"/>
-        <v>85.38</v>
+        <f t="shared" si="6"/>
+        <v>97.25</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
-        <v>-8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>92</v>
       </c>
@@ -3026,23 +3021,23 @@
         <v>7.5</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="3"/>
-        <v>117.9</v>
+        <f t="shared" si="4"/>
+        <v>818.75</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="3"/>
-        <v>13.5</v>
+        <f t="shared" si="5"/>
+        <v>93.75</v>
       </c>
       <c r="I80">
-        <f t="shared" si="4"/>
-        <v>87.9</v>
+        <f t="shared" si="6"/>
+        <v>100.75</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
-        <v>-12.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>93</v>
       </c>
@@ -3053,23 +3048,23 @@
         <v>8.6</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="3"/>
-        <v>119.16000000000001</v>
+        <f t="shared" si="4"/>
+        <v>827.5</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="3"/>
-        <v>15.48</v>
+        <f t="shared" si="5"/>
+        <v>107.5</v>
       </c>
       <c r="I81">
-        <f t="shared" si="4"/>
-        <v>89.160000000000011</v>
+        <f t="shared" si="6"/>
+        <v>102.5</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
-        <v>-14.48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-17.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>94</v>
       </c>
@@ -3080,23 +3075,23 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="3"/>
-        <v>120.42000000000002</v>
+        <f t="shared" si="4"/>
+        <v>836.25</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="3"/>
-        <v>17.46</v>
+        <f t="shared" si="5"/>
+        <v>121.25</v>
       </c>
       <c r="I82">
-        <f t="shared" si="4"/>
-        <v>90.420000000000016</v>
+        <f t="shared" si="6"/>
+        <v>104.25</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
-        <v>-16.46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-19.400000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>95</v>
       </c>
@@ -3107,20 +3102,20 @@
         <v>10.8</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="3"/>
-        <v>122.03999999999999</v>
+        <f t="shared" si="4"/>
+        <v>847.5</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="3"/>
-        <v>19.440000000000001</v>
+        <f t="shared" si="5"/>
+        <v>135</v>
       </c>
       <c r="I83">
-        <f t="shared" si="4"/>
-        <v>92.039999999999992</v>
+        <f t="shared" si="6"/>
+        <v>106.5</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
-        <v>-18.440000000000001</v>
+        <f t="shared" si="7"/>
+        <v>-21.6</v>
       </c>
     </row>
   </sheetData>

--- a/uka15.xlsx
+++ b/uka15.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\samfundet\Mikrolysreklamen15\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD43702-1A6C-4619-AFFB-2D1523835446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9420"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uka15" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,48 +536,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Merknad" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nøytral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Tittel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totalt" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Varseltekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -828,26 +847,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="7" width="9.140625" style="1"/>
+    <col min="2" max="7" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -880,7 +899,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -913,7 +932,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -946,7 +965,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -979,7 +998,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1012,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1039,7 +1058,7 @@
         <v>-20.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1066,7 +1085,7 @@
         <v>-23.400000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1093,7 +1112,7 @@
         <v>-22.2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1120,7 +1139,7 @@
         <v>-21.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1147,7 +1166,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1174,7 +1193,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1201,7 +1220,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1228,7 +1247,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1255,7 +1274,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1282,7 +1301,7 @@
         <v>-17.600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1309,7 +1328,7 @@
         <v>-18.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1336,7 +1355,7 @@
         <v>-18.600000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1363,7 +1382,7 @@
         <v>-17.600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1390,7 +1409,7 @@
         <v>-15.8</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1417,7 +1436,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1444,7 +1463,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1471,7 +1490,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1498,7 +1517,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1525,7 +1544,7 @@
         <v>-17.400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1552,7 +1571,7 @@
         <v>-14.200000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1579,7 +1598,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1606,7 +1625,7 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1633,7 +1652,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1660,7 +1679,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -1687,7 +1706,7 @@
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -1714,7 +1733,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -1741,7 +1760,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -1768,7 +1787,7 @@
         <v>-11.6</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -1795,7 +1814,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>36</v>
       </c>
@@ -1822,7 +1841,7 @@
         <v>-14.200000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>37</v>
       </c>
@@ -1849,7 +1868,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>38</v>
       </c>
@@ -1876,7 +1895,7 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39</v>
       </c>
@@ -1903,7 +1922,7 @@
         <v>-7.6000000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -1930,7 +1949,7 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -1957,7 +1976,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>45</v>
       </c>
@@ -1984,7 +2003,7 @@
         <v>-16.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>46</v>
       </c>
@@ -2011,7 +2030,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>47</v>
       </c>
@@ -2038,7 +2057,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>48</v>
       </c>
@@ -2065,7 +2084,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>49</v>
       </c>
@@ -2092,7 +2111,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>50</v>
       </c>
@@ -2119,7 +2138,7 @@
         <v>-16.8</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>51</v>
       </c>
@@ -2146,7 +2165,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>52</v>
       </c>
@@ -2173,7 +2192,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>53</v>
       </c>
@@ -2200,7 +2219,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>54</v>
       </c>
@@ -2227,7 +2246,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>55</v>
       </c>
@@ -2254,7 +2273,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>56</v>
       </c>
@@ -2281,7 +2300,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>57</v>
       </c>
@@ -2308,7 +2327,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>58</v>
       </c>
@@ -2335,7 +2354,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>59</v>
       </c>
@@ -2362,7 +2381,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>65</v>
       </c>
@@ -2389,7 +2408,7 @@
         <v>-17.2</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>66</v>
       </c>
@@ -2416,7 +2435,7 @@
         <v>-14.200000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>67</v>
       </c>
@@ -2443,7 +2462,7 @@
         <v>-11.4</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>68</v>
       </c>
@@ -2470,7 +2489,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>69</v>
       </c>
@@ -2497,7 +2516,7 @@
         <v>-5.6000000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>70</v>
       </c>
@@ -2524,7 +2543,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>71</v>
       </c>
@@ -2551,7 +2570,7 @@
         <v>-11.4</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>72</v>
       </c>
@@ -2578,7 +2597,7 @@
         <v>-14.4</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>73</v>
       </c>
@@ -2605,7 +2624,7 @@
         <v>-17.400000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>74</v>
       </c>
@@ -2632,7 +2651,7 @@
         <v>-14.200000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>75</v>
       </c>
@@ -2659,7 +2678,7 @@
         <v>-11.4</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>76</v>
       </c>
@@ -2686,7 +2705,7 @@
         <v>-14.200000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>80</v>
       </c>
@@ -2713,7 +2732,7 @@
         <v>-19.400000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>81</v>
       </c>
@@ -2740,7 +2759,7 @@
         <v>-17.2</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>82</v>
       </c>
@@ -2767,7 +2786,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>83</v>
       </c>
@@ -2794,7 +2813,7 @@
         <v>-12.8</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>84</v>
       </c>
@@ -2821,7 +2840,7 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>85</v>
       </c>
@@ -2848,7 +2867,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>86</v>
       </c>
@@ -2875,7 +2894,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>87</v>
       </c>
@@ -2902,7 +2921,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>88</v>
       </c>
@@ -2929,7 +2948,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>89</v>
       </c>
@@ -2956,7 +2975,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>90</v>
       </c>
@@ -2983,7 +3002,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>91</v>
       </c>
@@ -3010,7 +3029,7 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>92</v>
       </c>
@@ -3037,7 +3056,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>93</v>
       </c>
@@ -3064,7 +3083,7 @@
         <v>-17.2</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>94</v>
       </c>
@@ -3091,7 +3110,7 @@
         <v>-19.400000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>95</v>
       </c>
